--- a/Assessments/completed_lrs.xlsx
+++ b/Assessments/completed_lrs.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>WEAK NEGATIVE</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WEAK NEGATIVE</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WEAK NEGATIVE</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>WEAK POSITIVE</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WEAK NEGATIVE</t>
+          <t>STRONG NEGATIVE</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>WEAK POSITIVE</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WEAK POSITIVE</t>
+          <t>WEAK NEGATIVE</t>
         </is>
       </c>
     </row>
